--- a/Viable Titre/test_17_.xlsx
+++ b/Viable Titre/test_17_.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,36 +446,6 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Dilution_1</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Dilution_2</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Colonies_1A</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Colonies_1B</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Colonies_2A</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Colonies_2B</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>Titre</t>
         </is>
       </c>
@@ -492,24 +462,6 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E2" t="n">
-        <v>14</v>
-      </c>
-      <c r="F2" t="n">
-        <v>15</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-      <c r="I2" t="n">
         <v>80000</v>
       </c>
     </row>
@@ -524,39 +476,39 @@
           <t>LB</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>10e-3</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>10e-1</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>1584.1584158415842</t>
+      <c r="C3" t="n">
+        <v>1584.158415841584</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Kan</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4954.545454545454</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Kan</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>4954.545454545454</t>
         </is>
       </c>
     </row>
